--- a/csv/model/sector_ethanol/formula_sector_ethanol_SK.xlsx
+++ b/csv/model/sector_ethanol/formula_sector_ethanol_SK.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Brad_Griffin\CIMS\cims-models\csv\model\sector_ethanol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\model\sector_ethanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3313BC96-FA08-4E14-88E9-11115AD944BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC08CB82-8C5A-4E53-BDC2-A0A777C91CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4A1C521B-BD77-43E5-8BAA-66B3856C8F0A}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="106">
   <si>
     <t>CIMS.CAN.SK.Ethanol.Steam</t>
   </si>
@@ -313,9 +313,6 @@
   </si>
   <si>
     <t>Steam</t>
-  </si>
-  <si>
-    <t>Node Tech Compete</t>
   </si>
   <si>
     <t>Boilers Electric</t>
@@ -48968,8 +48965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA06A20-1D0B-4191-B608-E359B9862FCB}">
   <dimension ref="A1:X233"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:X247"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="H108" sqref="H108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55058,7 +55055,7 @@
         <v>20</v>
       </c>
       <c r="H107" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.25">
@@ -55207,7 +55204,7 @@
         <v>83</v>
       </c>
       <c r="F110" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G110" t="s">
         <v>7</v>
@@ -55230,7 +55227,7 @@
         <v>83</v>
       </c>
       <c r="F111" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G111" t="s">
         <v>67</v>
@@ -55299,7 +55296,7 @@
         <v>83</v>
       </c>
       <c r="F112" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G112" t="s">
         <v>69</v>
@@ -55368,7 +55365,7 @@
         <v>83</v>
       </c>
       <c r="F113" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G113" t="s">
         <v>70</v>
@@ -55437,7 +55434,7 @@
         <v>83</v>
       </c>
       <c r="F114" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G114" t="s">
         <v>62</v>
@@ -55466,7 +55463,7 @@
         <v>83</v>
       </c>
       <c r="F115" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G115" t="s">
         <v>72</v>
@@ -55535,7 +55532,7 @@
         <v>83</v>
       </c>
       <c r="F116" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G116" t="s">
         <v>73</v>
@@ -55604,7 +55601,7 @@
         <v>83</v>
       </c>
       <c r="F117" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G117" t="s">
         <v>75</v>
@@ -55673,7 +55670,7 @@
         <v>83</v>
       </c>
       <c r="F118" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G118" t="s">
         <v>54</v>
@@ -55745,7 +55742,7 @@
         <v>83</v>
       </c>
       <c r="F119" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G119" t="s">
         <v>7</v>
@@ -55768,7 +55765,7 @@
         <v>83</v>
       </c>
       <c r="F120" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G120" t="s">
         <v>67</v>
@@ -55837,7 +55834,7 @@
         <v>83</v>
       </c>
       <c r="F121" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G121" t="s">
         <v>69</v>
@@ -55906,7 +55903,7 @@
         <v>83</v>
       </c>
       <c r="F122" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G122" t="s">
         <v>70</v>
@@ -55975,7 +55972,7 @@
         <v>83</v>
       </c>
       <c r="F123" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G123" t="s">
         <v>62</v>
@@ -56004,7 +56001,7 @@
         <v>83</v>
       </c>
       <c r="F124" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G124" t="s">
         <v>72</v>
@@ -56073,7 +56070,7 @@
         <v>83</v>
       </c>
       <c r="F125" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G125" t="s">
         <v>73</v>
@@ -56142,7 +56139,7 @@
         <v>83</v>
       </c>
       <c r="F126" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G126" t="s">
         <v>75</v>
@@ -56211,7 +56208,7 @@
         <v>83</v>
       </c>
       <c r="F127" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G127" t="s">
         <v>54</v>
@@ -56283,7 +56280,7 @@
         <v>83</v>
       </c>
       <c r="F128" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G128" t="s">
         <v>7</v>
@@ -56306,7 +56303,7 @@
         <v>83</v>
       </c>
       <c r="F129" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G129" t="s">
         <v>67</v>
@@ -56375,7 +56372,7 @@
         <v>83</v>
       </c>
       <c r="F130" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G130" t="s">
         <v>69</v>
@@ -56444,7 +56441,7 @@
         <v>83</v>
       </c>
       <c r="F131" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G131" t="s">
         <v>70</v>
@@ -56513,7 +56510,7 @@
         <v>83</v>
       </c>
       <c r="F132" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G132" t="s">
         <v>62</v>
@@ -56542,7 +56539,7 @@
         <v>83</v>
       </c>
       <c r="F133" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G133" t="s">
         <v>72</v>
@@ -56611,7 +56608,7 @@
         <v>83</v>
       </c>
       <c r="F134" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G134" t="s">
         <v>73</v>
@@ -56680,7 +56677,7 @@
         <v>83</v>
       </c>
       <c r="F135" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G135" t="s">
         <v>75</v>
@@ -56749,7 +56746,7 @@
         <v>83</v>
       </c>
       <c r="F136" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G136" t="s">
         <v>54</v>
@@ -56821,7 +56818,7 @@
         <v>83</v>
       </c>
       <c r="F137" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G137" t="s">
         <v>7</v>
@@ -56844,7 +56841,7 @@
         <v>83</v>
       </c>
       <c r="F138" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G138" t="s">
         <v>67</v>
@@ -56913,7 +56910,7 @@
         <v>83</v>
       </c>
       <c r="F139" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G139" t="s">
         <v>69</v>
@@ -56982,7 +56979,7 @@
         <v>83</v>
       </c>
       <c r="F140" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G140" t="s">
         <v>70</v>
@@ -57051,7 +57048,7 @@
         <v>83</v>
       </c>
       <c r="F141" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G141" t="s">
         <v>62</v>
@@ -57080,7 +57077,7 @@
         <v>83</v>
       </c>
       <c r="F142" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G142" t="s">
         <v>72</v>
@@ -57149,7 +57146,7 @@
         <v>83</v>
       </c>
       <c r="F143" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G143" t="s">
         <v>73</v>
@@ -57218,7 +57215,7 @@
         <v>83</v>
       </c>
       <c r="F144" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G144" t="s">
         <v>75</v>
@@ -57287,7 +57284,7 @@
         <v>83</v>
       </c>
       <c r="F145" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G145" t="s">
         <v>54</v>
@@ -57359,7 +57356,7 @@
         <v>83</v>
       </c>
       <c r="F146" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G146" t="s">
         <v>54</v>
@@ -57431,13 +57428,13 @@
         <v>83</v>
       </c>
       <c r="F147" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G147" t="s">
         <v>54</v>
       </c>
       <c r="J147" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L147" t="s">
         <v>74</v>
@@ -57503,7 +57500,7 @@
         <v>83</v>
       </c>
       <c r="F148" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G148" t="s">
         <v>7</v>
@@ -57526,7 +57523,7 @@
         <v>83</v>
       </c>
       <c r="F149" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G149" t="s">
         <v>67</v>
@@ -57595,7 +57592,7 @@
         <v>83</v>
       </c>
       <c r="F150" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G150" t="s">
         <v>69</v>
@@ -57664,7 +57661,7 @@
         <v>83</v>
       </c>
       <c r="F151" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G151" t="s">
         <v>70</v>
@@ -57733,7 +57730,7 @@
         <v>83</v>
       </c>
       <c r="F152" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G152" t="s">
         <v>62</v>
@@ -57762,7 +57759,7 @@
         <v>83</v>
       </c>
       <c r="F153" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G153" t="s">
         <v>72</v>
@@ -57831,7 +57828,7 @@
         <v>83</v>
       </c>
       <c r="F154" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G154" t="s">
         <v>73</v>
@@ -57900,7 +57897,7 @@
         <v>83</v>
       </c>
       <c r="F155" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G155" t="s">
         <v>75</v>
@@ -57969,7 +57966,7 @@
         <v>83</v>
       </c>
       <c r="F156" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G156" t="s">
         <v>54</v>
@@ -58041,7 +58038,7 @@
         <v>83</v>
       </c>
       <c r="F157" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G157" t="s">
         <v>54</v>
@@ -58113,13 +58110,13 @@
         <v>83</v>
       </c>
       <c r="F158" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G158" t="s">
         <v>54</v>
       </c>
       <c r="J158" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L158" t="s">
         <v>74</v>
@@ -58185,7 +58182,7 @@
         <v>83</v>
       </c>
       <c r="F159" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G159" t="s">
         <v>7</v>
@@ -58208,7 +58205,7 @@
         <v>83</v>
       </c>
       <c r="F160" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G160" t="s">
         <v>67</v>
@@ -58277,7 +58274,7 @@
         <v>83</v>
       </c>
       <c r="F161" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G161" t="s">
         <v>69</v>
@@ -58346,7 +58343,7 @@
         <v>83</v>
       </c>
       <c r="F162" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G162" t="s">
         <v>70</v>
@@ -58415,7 +58412,7 @@
         <v>83</v>
       </c>
       <c r="F163" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G163" t="s">
         <v>62</v>
@@ -58444,7 +58441,7 @@
         <v>83</v>
       </c>
       <c r="F164" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G164" t="s">
         <v>72</v>
@@ -58513,7 +58510,7 @@
         <v>83</v>
       </c>
       <c r="F165" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G165" t="s">
         <v>73</v>
@@ -58582,7 +58579,7 @@
         <v>83</v>
       </c>
       <c r="F166" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G166" t="s">
         <v>75</v>
@@ -58651,7 +58648,7 @@
         <v>83</v>
       </c>
       <c r="F167" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G167" t="s">
         <v>54</v>
@@ -58723,7 +58720,7 @@
         <v>83</v>
       </c>
       <c r="F168" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G168" t="s">
         <v>54</v>
@@ -58795,7 +58792,7 @@
         <v>83</v>
       </c>
       <c r="F169" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G169" t="s">
         <v>7</v>
@@ -58818,7 +58815,7 @@
         <v>83</v>
       </c>
       <c r="F170" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G170" t="s">
         <v>67</v>
@@ -58887,7 +58884,7 @@
         <v>83</v>
       </c>
       <c r="F171" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G171" t="s">
         <v>69</v>
@@ -58956,7 +58953,7 @@
         <v>83</v>
       </c>
       <c r="F172" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G172" t="s">
         <v>70</v>
@@ -59025,7 +59022,7 @@
         <v>83</v>
       </c>
       <c r="F173" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G173" t="s">
         <v>62</v>
@@ -59054,7 +59051,7 @@
         <v>83</v>
       </c>
       <c r="F174" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G174" t="s">
         <v>72</v>
@@ -59123,7 +59120,7 @@
         <v>83</v>
       </c>
       <c r="F175" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G175" t="s">
         <v>73</v>
@@ -59192,7 +59189,7 @@
         <v>83</v>
       </c>
       <c r="F176" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G176" t="s">
         <v>75</v>
@@ -59261,7 +59258,7 @@
         <v>83</v>
       </c>
       <c r="F177" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G177" t="s">
         <v>54</v>
@@ -59333,7 +59330,7 @@
         <v>83</v>
       </c>
       <c r="F178" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G178" t="s">
         <v>54</v>
@@ -59405,7 +59402,7 @@
         <v>83</v>
       </c>
       <c r="F179" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G179" t="s">
         <v>7</v>
@@ -59428,7 +59425,7 @@
         <v>83</v>
       </c>
       <c r="F180" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G180" t="s">
         <v>67</v>
@@ -59497,7 +59494,7 @@
         <v>83</v>
       </c>
       <c r="F181" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G181" t="s">
         <v>69</v>
@@ -59566,7 +59563,7 @@
         <v>83</v>
       </c>
       <c r="F182" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G182" t="s">
         <v>70</v>
@@ -59635,7 +59632,7 @@
         <v>83</v>
       </c>
       <c r="F183" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G183" t="s">
         <v>62</v>
@@ -59664,7 +59661,7 @@
         <v>83</v>
       </c>
       <c r="F184" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G184" t="s">
         <v>72</v>
@@ -59733,7 +59730,7 @@
         <v>83</v>
       </c>
       <c r="F185" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G185" t="s">
         <v>73</v>
@@ -59802,7 +59799,7 @@
         <v>83</v>
       </c>
       <c r="F186" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G186" t="s">
         <v>75</v>
@@ -59871,7 +59868,7 @@
         <v>83</v>
       </c>
       <c r="F187" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G187" t="s">
         <v>54</v>
@@ -59943,7 +59940,7 @@
         <v>83</v>
       </c>
       <c r="F188" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G188" t="s">
         <v>54</v>
@@ -60015,7 +60012,7 @@
         <v>83</v>
       </c>
       <c r="F189" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G189" t="s">
         <v>7</v>
@@ -60038,7 +60035,7 @@
         <v>83</v>
       </c>
       <c r="F190" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G190" t="s">
         <v>67</v>
@@ -60107,7 +60104,7 @@
         <v>83</v>
       </c>
       <c r="F191" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G191" t="s">
         <v>69</v>
@@ -60176,7 +60173,7 @@
         <v>83</v>
       </c>
       <c r="F192" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G192" t="s">
         <v>70</v>
@@ -60245,7 +60242,7 @@
         <v>83</v>
       </c>
       <c r="F193" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G193" t="s">
         <v>62</v>
@@ -60274,7 +60271,7 @@
         <v>83</v>
       </c>
       <c r="F194" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G194" t="s">
         <v>72</v>
@@ -60343,7 +60340,7 @@
         <v>83</v>
       </c>
       <c r="F195" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G195" t="s">
         <v>73</v>
@@ -60412,7 +60409,7 @@
         <v>83</v>
       </c>
       <c r="F196" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G196" t="s">
         <v>75</v>
@@ -60481,7 +60478,7 @@
         <v>83</v>
       </c>
       <c r="F197" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G197" t="s">
         <v>54</v>
@@ -60553,7 +60550,7 @@
         <v>83</v>
       </c>
       <c r="F198" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G198" t="s">
         <v>54</v>
@@ -60625,13 +60622,13 @@
         <v>83</v>
       </c>
       <c r="F199" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G199" t="s">
         <v>54</v>
       </c>
       <c r="J199" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L199" t="s">
         <v>74</v>
@@ -60682,7 +60679,7 @@
     </row>
     <row r="200" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B200" t="s">
         <v>6</v>
@@ -60694,7 +60691,7 @@
         <v>17</v>
       </c>
       <c r="E200" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G200" t="s">
         <v>18</v>
@@ -60705,7 +60702,7 @@
     </row>
     <row r="201" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B201" t="s">
         <v>6</v>
@@ -60717,18 +60714,18 @@
         <v>17</v>
       </c>
       <c r="E201" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G201" t="s">
         <v>20</v>
       </c>
       <c r="H201" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="202" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B202" t="s">
         <v>6</v>
@@ -60740,16 +60737,16 @@
         <v>17</v>
       </c>
       <c r="E202" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G202" t="s">
         <v>54</v>
       </c>
       <c r="J202" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K202" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L202" t="s">
         <v>47</v>
@@ -60800,7 +60797,7 @@
     </row>
     <row r="203" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B203" t="s">
         <v>6</v>
@@ -60812,16 +60809,16 @@
         <v>17</v>
       </c>
       <c r="E203" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G203" t="s">
         <v>54</v>
       </c>
       <c r="J203" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K203" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L203" t="s">
         <v>47</v>
@@ -60872,7 +60869,7 @@
     </row>
     <row r="204" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B204" t="s">
         <v>6</v>
@@ -60884,7 +60881,7 @@
         <v>17</v>
       </c>
       <c r="E204" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G204" t="s">
         <v>18</v>
@@ -60895,7 +60892,7 @@
     </row>
     <row r="205" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B205" t="s">
         <v>6</v>
@@ -60907,7 +60904,7 @@
         <v>17</v>
       </c>
       <c r="E205" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G205" t="s">
         <v>20</v>
@@ -60918,7 +60915,7 @@
     </row>
     <row r="206" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B206" t="s">
         <v>6</v>
@@ -60930,13 +60927,13 @@
         <v>17</v>
       </c>
       <c r="E206" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G206" t="s">
         <v>58</v>
       </c>
       <c r="K206" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L206" t="s">
         <v>59</v>
@@ -60987,7 +60984,7 @@
     </row>
     <row r="207" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B207" t="s">
         <v>6</v>
@@ -60999,7 +60996,7 @@
         <v>17</v>
       </c>
       <c r="E207" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G207" t="s">
         <v>60</v>
@@ -61050,7 +61047,7 @@
     </row>
     <row r="208" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B208" t="s">
         <v>6</v>
@@ -61062,10 +61059,10 @@
         <v>17</v>
       </c>
       <c r="E208" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F208" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G208" t="s">
         <v>7</v>
@@ -61073,7 +61070,7 @@
     </row>
     <row r="209" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B209" t="s">
         <v>6</v>
@@ -61085,16 +61082,16 @@
         <v>17</v>
       </c>
       <c r="E209" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F209" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G209" t="s">
         <v>67</v>
       </c>
       <c r="K209" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L209" t="s">
         <v>68</v>
@@ -61145,7 +61142,7 @@
     </row>
     <row r="210" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B210" t="s">
         <v>6</v>
@@ -61157,16 +61154,16 @@
         <v>17</v>
       </c>
       <c r="E210" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F210" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G210" t="s">
         <v>69</v>
       </c>
       <c r="K210" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L210" t="s">
         <v>68</v>
@@ -61217,7 +61214,7 @@
     </row>
     <row r="211" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B211" t="s">
         <v>6</v>
@@ -61229,16 +61226,16 @@
         <v>17</v>
       </c>
       <c r="E211" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F211" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G211" t="s">
         <v>70</v>
       </c>
       <c r="K211" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L211" t="s">
         <v>71</v>
@@ -61289,7 +61286,7 @@
     </row>
     <row r="212" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B212" t="s">
         <v>6</v>
@@ -61301,16 +61298,16 @@
         <v>17</v>
       </c>
       <c r="E212" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F212" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G212" t="s">
         <v>62</v>
       </c>
       <c r="K212" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L212" t="s">
         <v>59</v>
@@ -61321,7 +61318,7 @@
     </row>
     <row r="213" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B213" t="s">
         <v>6</v>
@@ -61333,16 +61330,16 @@
         <v>17</v>
       </c>
       <c r="E213" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F213" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G213" t="s">
         <v>72</v>
       </c>
       <c r="K213" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L213" t="s">
         <v>47</v>
@@ -61393,7 +61390,7 @@
     </row>
     <row r="214" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B214" t="s">
         <v>6</v>
@@ -61405,16 +61402,16 @@
         <v>17</v>
       </c>
       <c r="E214" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F214" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G214" t="s">
         <v>73</v>
       </c>
       <c r="K214" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L214" t="s">
         <v>74</v>
@@ -61465,7 +61462,7 @@
     </row>
     <row r="215" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B215" t="s">
         <v>6</v>
@@ -61477,16 +61474,16 @@
         <v>17</v>
       </c>
       <c r="E215" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F215" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G215" t="s">
         <v>75</v>
       </c>
       <c r="K215" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L215" t="s">
         <v>74</v>
@@ -61537,7 +61534,7 @@
     </row>
     <row r="216" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B216" t="s">
         <v>6</v>
@@ -61549,10 +61546,10 @@
         <v>17</v>
       </c>
       <c r="E216" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F216" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G216" t="s">
         <v>54</v>
@@ -61561,7 +61558,7 @@
         <v>27</v>
       </c>
       <c r="K216" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L216" t="s">
         <v>19</v>
@@ -61612,7 +61609,7 @@
     </row>
     <row r="217" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B217" t="s">
         <v>6</v>
@@ -61624,19 +61621,19 @@
         <v>17</v>
       </c>
       <c r="E217" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F217" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G217" t="s">
         <v>54</v>
       </c>
       <c r="J217" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K217" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L217" t="s">
         <v>74</v>
@@ -61687,7 +61684,7 @@
     </row>
     <row r="218" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B218" t="s">
         <v>6</v>
@@ -61699,13 +61696,13 @@
         <v>17</v>
       </c>
       <c r="E218" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F218" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G218" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H218" t="s">
         <v>45</v>
@@ -61714,7 +61711,7 @@
         <v>46</v>
       </c>
       <c r="K218" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L218" t="s">
         <v>59</v>
@@ -61765,7 +61762,7 @@
     </row>
     <row r="219" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B219" t="s">
         <v>6</v>
@@ -61777,7 +61774,7 @@
         <v>17</v>
       </c>
       <c r="E219" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G219" t="s">
         <v>18</v>
@@ -61788,7 +61785,7 @@
     </row>
     <row r="220" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B220" t="s">
         <v>6</v>
@@ -61800,7 +61797,7 @@
         <v>17</v>
       </c>
       <c r="E220" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G220" t="s">
         <v>20</v>
@@ -61811,7 +61808,7 @@
     </row>
     <row r="221" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B221" t="s">
         <v>6</v>
@@ -61823,13 +61820,13 @@
         <v>17</v>
       </c>
       <c r="E221" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G221" t="s">
         <v>58</v>
       </c>
       <c r="K221" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L221" t="s">
         <v>59</v>
@@ -61880,7 +61877,7 @@
     </row>
     <row r="222" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B222" t="s">
         <v>6</v>
@@ -61892,7 +61889,7 @@
         <v>17</v>
       </c>
       <c r="E222" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G222" t="s">
         <v>60</v>
@@ -61943,7 +61940,7 @@
     </row>
     <row r="223" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B223" t="s">
         <v>6</v>
@@ -61955,10 +61952,10 @@
         <v>17</v>
       </c>
       <c r="E223" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F223" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G223" t="s">
         <v>7</v>
@@ -61966,7 +61963,7 @@
     </row>
     <row r="224" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B224" t="s">
         <v>6</v>
@@ -61978,16 +61975,16 @@
         <v>17</v>
       </c>
       <c r="E224" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F224" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G224" t="s">
         <v>67</v>
       </c>
       <c r="K224" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L224" t="s">
         <v>68</v>
@@ -62038,7 +62035,7 @@
     </row>
     <row r="225" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B225" t="s">
         <v>6</v>
@@ -62050,16 +62047,16 @@
         <v>17</v>
       </c>
       <c r="E225" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F225" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G225" t="s">
         <v>69</v>
       </c>
       <c r="K225" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L225" t="s">
         <v>68</v>
@@ -62110,7 +62107,7 @@
     </row>
     <row r="226" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B226" t="s">
         <v>6</v>
@@ -62122,16 +62119,16 @@
         <v>17</v>
       </c>
       <c r="E226" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F226" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G226" t="s">
         <v>70</v>
       </c>
       <c r="K226" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L226" t="s">
         <v>71</v>
@@ -62182,7 +62179,7 @@
     </row>
     <row r="227" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B227" t="s">
         <v>6</v>
@@ -62194,16 +62191,16 @@
         <v>17</v>
       </c>
       <c r="E227" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F227" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G227" t="s">
         <v>62</v>
       </c>
       <c r="K227" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L227" t="s">
         <v>59</v>
@@ -62214,7 +62211,7 @@
     </row>
     <row r="228" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B228" t="s">
         <v>6</v>
@@ -62226,16 +62223,16 @@
         <v>17</v>
       </c>
       <c r="E228" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F228" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G228" t="s">
         <v>72</v>
       </c>
       <c r="K228" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L228" t="s">
         <v>47</v>
@@ -62286,7 +62283,7 @@
     </row>
     <row r="229" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B229" t="s">
         <v>6</v>
@@ -62298,16 +62295,16 @@
         <v>17</v>
       </c>
       <c r="E229" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F229" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G229" t="s">
         <v>73</v>
       </c>
       <c r="K229" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L229" t="s">
         <v>74</v>
@@ -62358,7 +62355,7 @@
     </row>
     <row r="230" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B230" t="s">
         <v>6</v>
@@ -62370,16 +62367,16 @@
         <v>17</v>
       </c>
       <c r="E230" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F230" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G230" t="s">
         <v>75</v>
       </c>
       <c r="K230" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L230" t="s">
         <v>74</v>
@@ -62430,7 +62427,7 @@
     </row>
     <row r="231" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B231" t="s">
         <v>6</v>
@@ -62442,10 +62439,10 @@
         <v>17</v>
       </c>
       <c r="E231" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F231" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G231" t="s">
         <v>54</v>
@@ -62454,7 +62451,7 @@
         <v>37</v>
       </c>
       <c r="K231" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L231" t="s">
         <v>19</v>
@@ -62505,7 +62502,7 @@
     </row>
     <row r="232" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B232" t="s">
         <v>6</v>
@@ -62517,19 +62514,19 @@
         <v>17</v>
       </c>
       <c r="E232" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F232" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G232" t="s">
         <v>54</v>
       </c>
       <c r="J232" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K232" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L232" t="s">
         <v>74</v>
@@ -62580,7 +62577,7 @@
     </row>
     <row r="233" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B233" t="s">
         <v>6</v>
@@ -62592,13 +62589,13 @@
         <v>17</v>
       </c>
       <c r="E233" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F233" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G233" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H233" t="s">
         <v>45</v>
@@ -62607,7 +62604,7 @@
         <v>46</v>
       </c>
       <c r="K233" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L233" t="s">
         <v>59</v>
